--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slit1-Robo1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slit1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Robo1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H2">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I2">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J2">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3525361129076</v>
+        <v>0.3526105</v>
       </c>
       <c r="N2">
-        <v>0.3525361129076</v>
+        <v>0.705221</v>
       </c>
       <c r="O2">
-        <v>0.02266695876843876</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P2">
-        <v>0.02266695876843876</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q2">
-        <v>0.1211022425869886</v>
+        <v>0.04316534327325</v>
       </c>
       <c r="R2">
-        <v>0.1211022425869886</v>
+        <v>0.172661373093</v>
       </c>
       <c r="S2">
-        <v>0.003793766103591715</v>
+        <v>0.0008930529321966329</v>
       </c>
       <c r="T2">
-        <v>0.003793766103591715</v>
+        <v>0.0004829182923623567</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H3">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I3">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J3">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.5535625572773</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N3">
-        <v>10.5535625572773</v>
+        <v>34.387136</v>
       </c>
       <c r="O3">
-        <v>0.6785607448069941</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P3">
-        <v>0.6785607448069941</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q3">
-        <v>3.625330983618509</v>
+        <v>1.403184278048</v>
       </c>
       <c r="R3">
-        <v>3.625330983618509</v>
+        <v>8.419105668287999</v>
       </c>
       <c r="S3">
-        <v>0.1135706284718333</v>
+        <v>0.02903064678509232</v>
       </c>
       <c r="T3">
-        <v>0.1135706284718333</v>
+        <v>0.02354747943744177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H4">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I4">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J4">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.31979691957588</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N4">
-        <v>0.31979691957588</v>
+        <v>0.154567</v>
       </c>
       <c r="O4">
-        <v>0.02056193202595423</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P4">
-        <v>0.02056193202595423</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q4">
-        <v>0.1098557643176845</v>
+        <v>0.0063071837185</v>
       </c>
       <c r="R4">
-        <v>0.1098557643176845</v>
+        <v>0.037843102311</v>
       </c>
       <c r="S4">
-        <v>0.00344144803638318</v>
+        <v>0.000130490075754822</v>
       </c>
       <c r="T4">
-        <v>0.00344144803638318</v>
+        <v>0.000105843745004151</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H5">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I5">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J5">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.3269677876795</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N5">
-        <v>4.3269677876795</v>
+        <v>0.143093</v>
       </c>
       <c r="O5">
-        <v>0.2782103643986128</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P5">
-        <v>0.2782103643986128</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q5">
-        <v>1.486388155720632</v>
+        <v>0.0058389814115</v>
       </c>
       <c r="R5">
-        <v>1.486388155720632</v>
+        <v>0.035033888469</v>
       </c>
       <c r="S5">
-        <v>0.04656403450086895</v>
+        <v>0.0001208033824165879</v>
       </c>
       <c r="T5">
-        <v>0.04656403450086895</v>
+        <v>9.798662718354491E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.45834274174173</v>
+        <v>0.1224165</v>
       </c>
       <c r="H6">
-        <v>0.45834274174173</v>
+        <v>0.244833</v>
       </c>
       <c r="I6">
-        <v>0.223315609939031</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J6">
-        <v>0.223315609939031</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3525361129076</v>
+        <v>0.414919</v>
       </c>
       <c r="N6">
-        <v>0.3525361129076</v>
+        <v>1.244757</v>
       </c>
       <c r="O6">
-        <v>0.02266695876843876</v>
+        <v>0.02177258089489379</v>
       </c>
       <c r="P6">
-        <v>0.02266695876843876</v>
+        <v>0.02485020139280528</v>
       </c>
       <c r="Q6">
-        <v>0.1615823685530415</v>
+        <v>0.05079293176350001</v>
       </c>
       <c r="R6">
-        <v>0.1615823685530415</v>
+        <v>0.304757590581</v>
       </c>
       <c r="S6">
-        <v>0.005061885722836769</v>
+        <v>0.001050861019663608</v>
       </c>
       <c r="T6">
-        <v>0.005061885722836769</v>
+        <v>0.0008523795020937979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.45834274174173</v>
+        <v>0.1224165</v>
       </c>
       <c r="H7">
-        <v>0.45834274174173</v>
+        <v>0.244833</v>
       </c>
       <c r="I7">
-        <v>0.223315609939031</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J7">
-        <v>0.223315609939031</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.5535625572773</v>
+        <v>6.7278225</v>
       </c>
       <c r="N7">
-        <v>10.5535625572773</v>
+        <v>13.455645</v>
       </c>
       <c r="O7">
-        <v>0.6785607448069941</v>
+        <v>0.3530377245383715</v>
       </c>
       <c r="P7">
-        <v>0.6785607448069941</v>
+        <v>0.2686271200885743</v>
       </c>
       <c r="Q7">
-        <v>4.837148797645341</v>
+        <v>0.82359648307125</v>
       </c>
       <c r="R7">
-        <v>4.837148797645341</v>
+        <v>3.294385932285</v>
       </c>
       <c r="S7">
-        <v>0.1515332066072571</v>
+        <v>0.01703948580919593</v>
       </c>
       <c r="T7">
-        <v>0.1515332066072571</v>
+        <v>0.009214100411125144</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.45834274174173</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H8">
-        <v>0.45834274174173</v>
+        <v>1.132793</v>
       </c>
       <c r="I8">
-        <v>0.223315609939031</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J8">
-        <v>0.223315609939031</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.31979691957588</v>
+        <v>0.3526105</v>
       </c>
       <c r="N8">
-        <v>0.31979691957588</v>
+        <v>0.705221</v>
       </c>
       <c r="O8">
-        <v>0.02056193202595423</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P8">
-        <v>0.02056193202595423</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q8">
-        <v>0.1465765969189684</v>
+        <v>0.1331449020421667</v>
       </c>
       <c r="R8">
-        <v>0.1465765969189684</v>
+        <v>0.7988694122529999</v>
       </c>
       <c r="S8">
-        <v>0.004591800391900866</v>
+        <v>0.002754650748937222</v>
       </c>
       <c r="T8">
-        <v>0.004591800391900866</v>
+        <v>0.002234365715242762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,805 +962,1797 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.45834274174173</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H9">
-        <v>0.45834274174173</v>
+        <v>1.132793</v>
       </c>
       <c r="I9">
-        <v>0.223315609939031</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J9">
-        <v>0.223315609939031</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.3269677876795</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N9">
-        <v>4.3269677876795</v>
+        <v>34.387136</v>
       </c>
       <c r="O9">
-        <v>0.2782103643986128</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P9">
-        <v>0.2782103643986128</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q9">
-        <v>1.98323427923317</v>
+        <v>4.328167438983111</v>
       </c>
       <c r="R9">
-        <v>1.98323427923317</v>
+        <v>38.95350695084799</v>
       </c>
       <c r="S9">
-        <v>0.06212871721703631</v>
+        <v>0.08954597205339991</v>
       </c>
       <c r="T9">
-        <v>0.06212871721703631</v>
+        <v>0.1089494466611036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.70300487210798</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H10">
-        <v>0.70300487210798</v>
+        <v>1.132793</v>
       </c>
       <c r="I10">
-        <v>0.3425208855895158</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J10">
-        <v>0.3425208855895158</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.3525361129076</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N10">
-        <v>0.3525361129076</v>
+        <v>0.154567</v>
       </c>
       <c r="O10">
-        <v>0.02266695876843876</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P10">
-        <v>0.02266695876843876</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q10">
-        <v>0.2478346049680517</v>
+        <v>0.01945471284788889</v>
       </c>
       <c r="R10">
-        <v>0.2478346049680517</v>
+        <v>0.175092415631</v>
       </c>
       <c r="S10">
-        <v>0.007763906790986683</v>
+        <v>0.0004025008730700301</v>
       </c>
       <c r="T10">
-        <v>0.007763906790986683</v>
+        <v>0.0004897176991438542</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.70300487210798</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H11">
-        <v>0.70300487210798</v>
+        <v>1.132793</v>
       </c>
       <c r="I11">
-        <v>0.3425208855895158</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J11">
-        <v>0.3425208855895158</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>10.5535625572773</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N11">
-        <v>10.5535625572773</v>
+        <v>0.143093</v>
       </c>
       <c r="O11">
-        <v>0.6785607448069941</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P11">
-        <v>0.6785607448069941</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q11">
-        <v>7.419205895862294</v>
+        <v>0.01801052763877778</v>
       </c>
       <c r="R11">
-        <v>7.419205895862294</v>
+        <v>0.162094748749</v>
       </c>
       <c r="S11">
-        <v>0.2324212272375731</v>
+        <v>0.00037262195313495</v>
       </c>
       <c r="T11">
-        <v>0.2324212272375731</v>
+        <v>0.0004533643968220353</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.70300487210798</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H12">
-        <v>0.70300487210798</v>
+        <v>1.132793</v>
       </c>
       <c r="I12">
-        <v>0.3425208855895158</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J12">
-        <v>0.3425208855895158</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.31979691957588</v>
+        <v>0.414919</v>
       </c>
       <c r="N12">
-        <v>0.31979691957588</v>
+        <v>1.244757</v>
       </c>
       <c r="O12">
-        <v>0.02056193202595423</v>
+        <v>0.02177258089489379</v>
       </c>
       <c r="P12">
-        <v>0.02056193202595423</v>
+        <v>0.02485020139280528</v>
       </c>
       <c r="Q12">
-        <v>0.2248187925469675</v>
+        <v>0.1566724462556667</v>
       </c>
       <c r="R12">
-        <v>0.2248187925469675</v>
+        <v>1.410052016301</v>
       </c>
       <c r="S12">
-        <v>0.00704289116696127</v>
+        <v>0.003241414915603147</v>
       </c>
       <c r="T12">
-        <v>0.00704289116696127</v>
+        <v>0.003943788350897712</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.70300487210798</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H13">
-        <v>0.70300487210798</v>
+        <v>1.132793</v>
       </c>
       <c r="I13">
-        <v>0.3425208855895158</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J13">
-        <v>0.3425208855895158</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.3269677876795</v>
+        <v>6.7278225</v>
       </c>
       <c r="N13">
-        <v>4.3269677876795</v>
+        <v>13.455645</v>
       </c>
       <c r="O13">
-        <v>0.2782103643986128</v>
+        <v>0.3530377245383715</v>
       </c>
       <c r="P13">
-        <v>0.2782103643986128</v>
+        <v>0.2686271200885743</v>
       </c>
       <c r="Q13">
-        <v>3.041879436192976</v>
+        <v>2.5404100777475</v>
       </c>
       <c r="R13">
-        <v>3.041879436192976</v>
+        <v>15.242460466485</v>
       </c>
       <c r="S13">
-        <v>0.09529286039399475</v>
+        <v>0.05255884690995218</v>
       </c>
       <c r="T13">
-        <v>0.09529286039399475</v>
+        <v>0.04263178757365095</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.201042873825539</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H14">
-        <v>0.201042873825539</v>
+        <v>2.175398</v>
       </c>
       <c r="I14">
-        <v>0.09795292453337072</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J14">
-        <v>0.09795292453337072</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3525361129076</v>
+        <v>0.3526105</v>
       </c>
       <c r="N14">
-        <v>0.3525361129076</v>
+        <v>0.705221</v>
       </c>
       <c r="O14">
-        <v>0.02266695876843876</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P14">
-        <v>0.02266695876843876</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q14">
-        <v>0.0708748732662286</v>
+        <v>0.2556893921596666</v>
       </c>
       <c r="R14">
-        <v>0.0708748732662286</v>
+        <v>1.534136352958</v>
       </c>
       <c r="S14">
-        <v>0.002220294901645908</v>
+        <v>0.005289988312018643</v>
       </c>
       <c r="T14">
-        <v>0.002220294901645908</v>
+        <v>0.004290841052343787</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.201042873825539</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H15">
-        <v>0.201042873825539</v>
+        <v>2.175398</v>
       </c>
       <c r="I15">
-        <v>0.09795292453337072</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J15">
-        <v>0.09795292453337072</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.5535625572773</v>
+        <v>11.46237866666667</v>
       </c>
       <c r="N15">
-        <v>10.5535625572773</v>
+        <v>34.387136</v>
       </c>
       <c r="O15">
-        <v>0.6785607448069941</v>
+        <v>0.6014802088308917</v>
       </c>
       <c r="P15">
-        <v>0.6785607448069941</v>
+        <v>0.6865012648426838</v>
       </c>
       <c r="Q15">
-        <v>2.121718545612633</v>
+        <v>8.31174520890311</v>
       </c>
       <c r="R15">
-        <v>2.121718545612633</v>
+        <v>74.805706880128</v>
       </c>
       <c r="S15">
-        <v>0.06646700942738733</v>
+        <v>0.1719626873692034</v>
       </c>
       <c r="T15">
-        <v>0.06646700942738733</v>
+        <v>0.2092248172152118</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.201042873825539</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H16">
-        <v>0.201042873825539</v>
+        <v>2.175398</v>
       </c>
       <c r="I16">
-        <v>0.09795292453337072</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J16">
-        <v>0.09795292453337072</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.31979691957588</v>
+        <v>0.05152233333333334</v>
       </c>
       <c r="N16">
-        <v>0.31979691957588</v>
+        <v>0.154567</v>
       </c>
       <c r="O16">
-        <v>0.02056193202595423</v>
+        <v>0.002703597980313465</v>
       </c>
       <c r="P16">
-        <v>0.02056193202595423</v>
+        <v>0.003085759773740364</v>
       </c>
       <c r="Q16">
-        <v>0.06429289175208969</v>
+        <v>0.03736052696288889</v>
       </c>
       <c r="R16">
-        <v>0.06429289175208969</v>
+        <v>0.336244742666</v>
       </c>
       <c r="S16">
-        <v>0.002014101375998594</v>
+        <v>0.0007729563956299142</v>
       </c>
       <c r="T16">
-        <v>0.002014101375998594</v>
+        <v>0.0009404462274061919</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.201042873825539</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H17">
-        <v>0.201042873825539</v>
+        <v>2.175398</v>
       </c>
       <c r="I17">
-        <v>0.09795292453337072</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J17">
-        <v>0.09795292453337072</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>4.3269677876795</v>
+        <v>0.04769766666666667</v>
       </c>
       <c r="N17">
-        <v>4.3269677876795</v>
+        <v>0.143093</v>
       </c>
       <c r="O17">
-        <v>0.2782103643986128</v>
+        <v>0.002502901303622343</v>
       </c>
       <c r="P17">
-        <v>0.2782103643986128</v>
+        <v>0.002856694011683153</v>
       </c>
       <c r="Q17">
-        <v>0.8699060389856214</v>
+        <v>0.03458713622377778</v>
       </c>
       <c r="R17">
-        <v>0.8699060389856214</v>
+        <v>0.311284226014</v>
       </c>
       <c r="S17">
-        <v>0.02725151882833889</v>
+        <v>0.000715577384046215</v>
       </c>
       <c r="T17">
-        <v>0.02725151882833889</v>
+        <v>0.0008706339129195379</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.34653605572725</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H18">
-        <v>0.34653605572725</v>
+        <v>2.175398</v>
       </c>
       <c r="I18">
-        <v>0.1688407028254052</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J18">
-        <v>0.1688407028254052</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3525361129076</v>
+        <v>0.414919</v>
       </c>
       <c r="N18">
-        <v>0.3525361129076</v>
+        <v>1.244757</v>
       </c>
       <c r="O18">
-        <v>0.02266695876843876</v>
+        <v>0.02177258089489379</v>
       </c>
       <c r="P18">
-        <v>0.02266695876843876</v>
+        <v>0.02485020139280528</v>
       </c>
       <c r="Q18">
-        <v>0.1221664740684162</v>
+        <v>0.3008713209206667</v>
       </c>
       <c r="R18">
-        <v>0.1221664740684162</v>
+        <v>2.707841888286</v>
       </c>
       <c r="S18">
-        <v>0.003827105249377682</v>
+        <v>0.006224762621744003</v>
       </c>
       <c r="T18">
-        <v>0.003827105249377682</v>
+        <v>0.007573589606367784</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.34653605572725</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H19">
-        <v>0.34653605572725</v>
+        <v>2.175398</v>
       </c>
       <c r="I19">
-        <v>0.1688407028254052</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J19">
-        <v>0.1688407028254052</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.5535625572773</v>
+        <v>6.7278225</v>
       </c>
       <c r="N19">
-        <v>10.5535625572773</v>
+        <v>13.455645</v>
       </c>
       <c r="O19">
-        <v>0.6785607448069941</v>
+        <v>0.3530377245383715</v>
       </c>
       <c r="P19">
-        <v>0.6785607448069941</v>
+        <v>0.2686271200885743</v>
       </c>
       <c r="Q19">
-        <v>3.657189942469665</v>
+        <v>4.878563870285</v>
       </c>
       <c r="R19">
-        <v>3.657189942469665</v>
+        <v>29.27138322171</v>
       </c>
       <c r="S19">
-        <v>0.1145686730629433</v>
+        <v>0.1009331894266792</v>
       </c>
       <c r="T19">
-        <v>0.1145686730629433</v>
+        <v>0.08186941958870256</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.34653605572725</v>
+        <v>0.7440523333333333</v>
       </c>
       <c r="H20">
-        <v>0.34653605572725</v>
+        <v>2.232157</v>
       </c>
       <c r="I20">
-        <v>0.1688407028254052</v>
+        <v>0.293358647317485</v>
       </c>
       <c r="J20">
-        <v>0.1688407028254052</v>
+        <v>0.3127215918651032</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.31979691957588</v>
+        <v>0.3526105</v>
       </c>
       <c r="N20">
-        <v>0.31979691957588</v>
+        <v>0.705221</v>
       </c>
       <c r="O20">
-        <v>0.02056193202595423</v>
+        <v>0.01850298645190735</v>
       </c>
       <c r="P20">
-        <v>0.02056193202595423</v>
+        <v>0.01407895989051319</v>
       </c>
       <c r="Q20">
-        <v>0.11082116314355</v>
+        <v>0.2623606652828333</v>
       </c>
       <c r="R20">
-        <v>0.11082116314355</v>
+        <v>1.574163991697</v>
       </c>
       <c r="S20">
-        <v>0.003471691054710321</v>
+        <v>0.00542801107686529</v>
       </c>
       <c r="T20">
-        <v>0.003471691054710321</v>
+        <v>0.004402794748766225</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7440523333333333</v>
+      </c>
+      <c r="H21">
+        <v>2.232157</v>
+      </c>
+      <c r="I21">
+        <v>0.293358647317485</v>
+      </c>
+      <c r="J21">
+        <v>0.3127215918651032</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>11.46237866666667</v>
+      </c>
+      <c r="N21">
+        <v>34.387136</v>
+      </c>
+      <c r="O21">
+        <v>0.6014802088308917</v>
+      </c>
+      <c r="P21">
+        <v>0.6865012648426838</v>
+      </c>
+      <c r="Q21">
+        <v>8.528609592483555</v>
+      </c>
+      <c r="R21">
+        <v>76.75748633235199</v>
+      </c>
+      <c r="S21">
+        <v>0.1764494204508688</v>
+      </c>
+      <c r="T21">
+        <v>0.2146837683590109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7440523333333333</v>
+      </c>
+      <c r="H22">
+        <v>2.232157</v>
+      </c>
+      <c r="I22">
+        <v>0.293358647317485</v>
+      </c>
+      <c r="J22">
+        <v>0.3127215918651032</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.154567</v>
+      </c>
+      <c r="O22">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="P22">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="Q22">
+        <v>0.03833531233544445</v>
+      </c>
+      <c r="R22">
+        <v>0.345017811019</v>
+      </c>
+      <c r="S22">
+        <v>0.0007931238463950423</v>
+      </c>
+      <c r="T22">
+        <v>0.0009649837085573872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7440523333333333</v>
+      </c>
+      <c r="H23">
+        <v>2.232157</v>
+      </c>
+      <c r="I23">
+        <v>0.293358647317485</v>
+      </c>
+      <c r="J23">
+        <v>0.3127215918651032</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.143093</v>
+      </c>
+      <c r="O23">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="P23">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="Q23">
+        <v>0.03548956017788889</v>
+      </c>
+      <c r="R23">
+        <v>0.319406041601</v>
+      </c>
+      <c r="S23">
+        <v>0.0007342477407998202</v>
+      </c>
+      <c r="T23">
+        <v>0.0008933498988050631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7440523333333333</v>
+      </c>
+      <c r="H24">
+        <v>2.232157</v>
+      </c>
+      <c r="I24">
+        <v>0.293358647317485</v>
+      </c>
+      <c r="J24">
+        <v>0.3127215918651032</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.414919</v>
+      </c>
+      <c r="N24">
+        <v>1.244757</v>
+      </c>
+      <c r="O24">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P24">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q24">
+        <v>0.3087214500943333</v>
+      </c>
+      <c r="R24">
+        <v>2.778493050849</v>
+      </c>
+      <c r="S24">
+        <v>0.006387174879936557</v>
+      </c>
+      <c r="T24">
+        <v>0.007771194537726472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7440523333333333</v>
+      </c>
+      <c r="H25">
+        <v>2.232157</v>
+      </c>
+      <c r="I25">
+        <v>0.293358647317485</v>
+      </c>
+      <c r="J25">
+        <v>0.3127215918651032</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.7278225</v>
+      </c>
+      <c r="N25">
+        <v>13.455645</v>
+      </c>
+      <c r="O25">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P25">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q25">
+        <v>5.0058520293775</v>
+      </c>
+      <c r="R25">
+        <v>30.035112176265</v>
+      </c>
+      <c r="S25">
+        <v>0.1035666693226195</v>
+      </c>
+      <c r="T25">
+        <v>0.08400550061223717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.34653605572725</v>
-      </c>
-      <c r="H21">
-        <v>0.34653605572725</v>
-      </c>
-      <c r="I21">
-        <v>0.1688407028254052</v>
-      </c>
-      <c r="J21">
-        <v>0.1688407028254052</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>4.3269677876795</v>
-      </c>
-      <c r="N21">
-        <v>4.3269677876795</v>
-      </c>
-      <c r="O21">
-        <v>0.2782103643986128</v>
-      </c>
-      <c r="P21">
-        <v>0.2782103643986128</v>
-      </c>
-      <c r="Q21">
-        <v>1.499450350401319</v>
-      </c>
-      <c r="R21">
-        <v>1.499450350401319</v>
-      </c>
-      <c r="S21">
-        <v>0.04697323345837388</v>
-      </c>
-      <c r="T21">
-        <v>0.04697323345837388</v>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.218412</v>
+      </c>
+      <c r="H26">
+        <v>0.655236</v>
+      </c>
+      <c r="I26">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J26">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3526105</v>
+      </c>
+      <c r="N26">
+        <v>0.705221</v>
+      </c>
+      <c r="O26">
+        <v>0.01850298645190735</v>
+      </c>
+      <c r="P26">
+        <v>0.01407895989051319</v>
+      </c>
+      <c r="Q26">
+        <v>0.07701436452600001</v>
+      </c>
+      <c r="R26">
+        <v>0.462086187156</v>
+      </c>
+      <c r="S26">
+        <v>0.001593359367625532</v>
+      </c>
+      <c r="T26">
+        <v>0.00129241340102985</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.218412</v>
+      </c>
+      <c r="H27">
+        <v>0.655236</v>
+      </c>
+      <c r="I27">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J27">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>11.46237866666667</v>
+      </c>
+      <c r="N27">
+        <v>34.387136</v>
+      </c>
+      <c r="O27">
+        <v>0.6014802088308917</v>
+      </c>
+      <c r="P27">
+        <v>0.6865012648426838</v>
+      </c>
+      <c r="Q27">
+        <v>2.503521049344</v>
+      </c>
+      <c r="R27">
+        <v>22.531689444096</v>
+      </c>
+      <c r="S27">
+        <v>0.05179564540421908</v>
+      </c>
+      <c r="T27">
+        <v>0.06301910378368765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.218412</v>
+      </c>
+      <c r="H28">
+        <v>0.655236</v>
+      </c>
+      <c r="I28">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J28">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.154567</v>
+      </c>
+      <c r="O28">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="P28">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="Q28">
+        <v>0.011253095868</v>
+      </c>
+      <c r="R28">
+        <v>0.101277862812</v>
+      </c>
+      <c r="S28">
+        <v>0.0002328166417579507</v>
+      </c>
+      <c r="T28">
+        <v>0.0002832650504692583</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.218412</v>
+      </c>
+      <c r="H29">
+        <v>0.655236</v>
+      </c>
+      <c r="I29">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J29">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.143093</v>
+      </c>
+      <c r="O29">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="P29">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="Q29">
+        <v>0.010417742772</v>
+      </c>
+      <c r="R29">
+        <v>0.09375968494800001</v>
+      </c>
+      <c r="S29">
+        <v>0.0002155339219825089</v>
+      </c>
+      <c r="T29">
+        <v>0.0002622373848673881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.218412</v>
+      </c>
+      <c r="H30">
+        <v>0.655236</v>
+      </c>
+      <c r="I30">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J30">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.414919</v>
+      </c>
+      <c r="N30">
+        <v>1.244757</v>
+      </c>
+      <c r="O30">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P30">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q30">
+        <v>0.09062328862800002</v>
+      </c>
+      <c r="R30">
+        <v>0.8156095976520001</v>
+      </c>
+      <c r="S30">
+        <v>0.001874916020526383</v>
+      </c>
+      <c r="T30">
+        <v>0.002281186504408849</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.218412</v>
+      </c>
+      <c r="H31">
+        <v>0.655236</v>
+      </c>
+      <c r="I31">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J31">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>6.7278225</v>
+      </c>
+      <c r="N31">
+        <v>13.455645</v>
+      </c>
+      <c r="O31">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P31">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q31">
+        <v>1.46943716787</v>
+      </c>
+      <c r="R31">
+        <v>8.81662300722</v>
+      </c>
+      <c r="S31">
+        <v>0.0304013607198221</v>
+      </c>
+      <c r="T31">
+        <v>0.0246592995919014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.348712</v>
+      </c>
+      <c r="H32">
+        <v>0.697424</v>
+      </c>
+      <c r="I32">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J32">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.3526105</v>
+      </c>
+      <c r="N32">
+        <v>0.705221</v>
+      </c>
+      <c r="O32">
+        <v>0.01850298645190735</v>
+      </c>
+      <c r="P32">
+        <v>0.01407895989051319</v>
+      </c>
+      <c r="Q32">
+        <v>0.122959512676</v>
+      </c>
+      <c r="R32">
+        <v>0.491838050704</v>
+      </c>
+      <c r="S32">
+        <v>0.002543924014264027</v>
+      </c>
+      <c r="T32">
+        <v>0.001375626680768215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.348712</v>
+      </c>
+      <c r="H33">
+        <v>0.697424</v>
+      </c>
+      <c r="I33">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J33">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>11.46237866666667</v>
+      </c>
+      <c r="N33">
+        <v>34.387136</v>
+      </c>
+      <c r="O33">
+        <v>0.6014802088308917</v>
+      </c>
+      <c r="P33">
+        <v>0.6865012648426838</v>
+      </c>
+      <c r="Q33">
+        <v>3.997068989610667</v>
+      </c>
+      <c r="R33">
+        <v>23.982413937664</v>
+      </c>
+      <c r="S33">
+        <v>0.0826958367681082</v>
+      </c>
+      <c r="T33">
+        <v>0.06707664938622812</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.348712</v>
+      </c>
+      <c r="H34">
+        <v>0.697424</v>
+      </c>
+      <c r="I34">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J34">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.05152233333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.154567</v>
+      </c>
+      <c r="O34">
+        <v>0.002703597980313465</v>
+      </c>
+      <c r="P34">
+        <v>0.003085759773740364</v>
+      </c>
+      <c r="Q34">
+        <v>0.01796645590133334</v>
+      </c>
+      <c r="R34">
+        <v>0.107798735408</v>
+      </c>
+      <c r="S34">
+        <v>0.0003717101477057054</v>
+      </c>
+      <c r="T34">
+        <v>0.0003015033431595211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.348712</v>
+      </c>
+      <c r="H35">
+        <v>0.697424</v>
+      </c>
+      <c r="I35">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J35">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.04769766666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.143093</v>
+      </c>
+      <c r="O35">
+        <v>0.002502901303622343</v>
+      </c>
+      <c r="P35">
+        <v>0.002856694011683153</v>
+      </c>
+      <c r="Q35">
+        <v>0.01663274873866667</v>
+      </c>
+      <c r="R35">
+        <v>0.09979649243200001</v>
+      </c>
+      <c r="S35">
+        <v>0.0003441169212422606</v>
+      </c>
+      <c r="T35">
+        <v>0.0002791217910855833</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.348712</v>
+      </c>
+      <c r="H36">
+        <v>0.697424</v>
+      </c>
+      <c r="I36">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J36">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.414919</v>
+      </c>
+      <c r="N36">
+        <v>1.244757</v>
+      </c>
+      <c r="O36">
+        <v>0.02177258089489379</v>
+      </c>
+      <c r="P36">
+        <v>0.02485020139280528</v>
+      </c>
+      <c r="Q36">
+        <v>0.144687234328</v>
+      </c>
+      <c r="R36">
+        <v>0.8681234059680001</v>
+      </c>
+      <c r="S36">
+        <v>0.002993451437420088</v>
+      </c>
+      <c r="T36">
+        <v>0.002428062891310668</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.348712</v>
+      </c>
+      <c r="H37">
+        <v>0.697424</v>
+      </c>
+      <c r="I37">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J37">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>6.7278225</v>
+      </c>
+      <c r="N37">
+        <v>13.455645</v>
+      </c>
+      <c r="O37">
+        <v>0.3530377245383715</v>
+      </c>
+      <c r="P37">
+        <v>0.2686271200885743</v>
+      </c>
+      <c r="Q37">
+        <v>2.34607243962</v>
+      </c>
+      <c r="R37">
+        <v>9.384289758480001</v>
+      </c>
+      <c r="S37">
+        <v>0.04853817235010258</v>
+      </c>
+      <c r="T37">
+        <v>0.02624701231095703</v>
       </c>
     </row>
   </sheetData>
